--- a/docs/ST4/ST4_12.08.24_output.xlsx
+++ b/docs/ST4/ST4_12.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,4274 +505,5073 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731445115.1758301</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731445115.5618927</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731445115.1758301.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731445115.5618927.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.48</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.3</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731445117.3360827</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731445119.543793</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731445117.3360827.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731445119.543793.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278.07</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.06999999999999318</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731445122.5288842</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731445123.6959288</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731445122.5288842.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731445123.6959288.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>278.76</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>278.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731445124.316817</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731445124.8277173</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731445124.316817.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731445124.8277173.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>278.95</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>279.2</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731445126.5393908</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731445127.624165</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731445126.5393908.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731445127.624165.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>279.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>279.66</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.160000000000025</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731445129.8266962</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731445130.1578107</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445129.8266962.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445130.1578107.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>278.48</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>278.3</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731445131.705238</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731445133.6120949</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445131.705238.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445133.6120949.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>278</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>278.07</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.06999999999999318</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731445136.2250986</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731445137.111711</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445136.2250986.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445137.111711.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278.76</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>278.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731445137.67582</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731445138.1376297</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445137.67582.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445138.1376297.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>278.95</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>279.2</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731445139.6862416</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731445140.5126166</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445139.6862416.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445140.5126166.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>279.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>279.66</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.160000000000025</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731445141.9854019</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731445142.4597445</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445141.9854019.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445142.4597445.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>278.48</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>278.71</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.2299999999999613</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731445142.473678</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731445143.0637941</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445142.473678.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445143.0637941.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>278.71</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>279.17</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.4600000000000364</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731445146.1968184</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731445147.511527</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445146.1968184.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445147.511527.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>278.46</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>279.13</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.6700000000000159</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731445149.361592</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731445150.5968776</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445149.361592.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445150.5968776.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>278.8</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>279.8</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731445150.611868</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731445151.0958567</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445150.611868.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445151.0958567.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>279.8</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>279.7</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731445152.1952229</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731445152.8422048</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445152.1952229.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445152.8422048.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>279.81</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>280.02</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.2099999999999795</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731445154.652637</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731445155.6694107</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445154.652637.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731445155.6694107.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>280.6</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>280.57</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.03000000000002956</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731445156.7992635</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731445156.7992635.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+          <t>./test_images/SBER1731445156.7992635.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>280.98</v>
       </c>
-      <c r="J20" t="n">
-        <v>280.98</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>281.03</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.04999999999995453</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731445157.6817386</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731445157.7697062</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445157.6817386.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445157.7697062.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>127.78</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>127.89</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731445157.9200554</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731445159.7359562</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445157.9200554.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445159.7359562.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>127.58</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>128.31</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.730000000000004</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731445160.9385502</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731445161.114247</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445160.9385502.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445161.114247.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>127.45</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>127.85</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.3999999999999915</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731445162.144953</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731445162.4668121</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445162.144953.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445162.4668121.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>127.16</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>127.63</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.4699999999999989</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731445162.4827697</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731445163.2586668</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445162.4827697.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445163.2586668.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>127.63</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>127.65</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731445164.4412081</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731445165.2857945</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445164.4412081.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445165.2857945.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>127.44</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>127.73</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.2900000000000063</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731445166.989617</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731445167.1949303</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445166.989617.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445167.1949303.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>128.28</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>128.1</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731445168.8614295</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731445169.3252695</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445168.8614295.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445169.3252695.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>128.16</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>128.19</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731445170.799885</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731445172.3385422</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445170.799885.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731445172.3385422.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>128.27</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>128.84</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.5699999999999932</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731445174.7278314</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731445175.6509862</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445174.7278314.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445175.6509862.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>6375</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>6385.5</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-10.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731445176.5796082</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731445177.282305</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445176.5796082.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445177.282305.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>6352.5</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>6344.5</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-8</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731445178.4819915</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731445179.2434976</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445178.4819915.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445179.2434976.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>6326.5</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>6337.5</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-11</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731445181.7524211</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731445182.2542531</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445181.7524211.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445182.2542531.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>6328.5</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>6356</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>27.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731445183.295624</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731445183.6187837</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445183.295624.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445183.6187837.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>6385</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>6375</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>10</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731445186.632964</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731445188.473043</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445186.632964.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445188.473043.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>6389.5</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>6415</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-25.5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731445189.5195389</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731445189.77923</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445189.5195389.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731445189.77923.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>6429.5</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>6437</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>7.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731445191.5077703</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731445194.0553186</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445191.5077703.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445194.0553186.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>500.3</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>496.05</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-4.25</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.8500000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731445194.0702758</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731445196.171712</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445194.0702758.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445196.171712.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>496.05</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>495.9</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.1500000000000341</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731445197.377513</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731445198.2722983</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445197.377513.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445198.2722983.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>496.65</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>498.35</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>1.700000000000045</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731445202.9535055</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731445203.0104675</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445202.9535055.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445203.0104675.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>499.5</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>498.7</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.8000000000000114</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731445203.3637204</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731445203.9029546</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445203.3637204.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731445203.9029546.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>499.8</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>499.55</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731445205.5749238</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731445205.5749238.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+          <t>./test_images/ROSN1731445205.5749238.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>502.75</v>
       </c>
-      <c r="J42" t="n">
-        <v>502.75</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
+      <c r="L42" t="n">
+        <v>501.85</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.8999999999999773</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731445205.9667222</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731445210.5501227</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731445205.9667222.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731445210.5501227.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>224.69</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>224.32</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.3700000000000045</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731445213.9006526</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731445214.0358913</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731445213.9006526.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731445214.0358913.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>225.68</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>225.53</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731445214.9182186</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731445216.399652</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731445214.9182186.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731445216.399652.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>225.72</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>226.1</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.3799999999999955</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731445229.048207</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731445229.8409712</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445229.048207.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445229.8409712.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1018.2</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1015.6</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>2.600000000000023</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731445230.7237222</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731445232.534072</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445230.7237222.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445232.534072.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1018</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1017</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731445233.4555697</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731445233.8538594</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445233.4555697.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731445233.8538594.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1026</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1023.4</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>2.600000000000023</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731445234.2049644</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731445234.2049644.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+          <t>./test_images/NVTK1731445234.2049644.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1026.2</v>
       </c>
-      <c r="J49" t="n">
-        <v>1026.2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
+      <c r="L49" t="n">
+        <v>1030.6</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-4.399999999999864</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731445238.1134808</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731445238.732769</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CNY1731445238.1134808.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CNY1731445238.732769.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>11.903</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>11.931</v>
       </c>
-      <c r="K50" t="n">
-        <v>0.02800000000000047</v>
+      <c r="M50" t="n">
+        <v>0.02799999999999869</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731445239.6459854</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731445240.3766139</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CNY1731445239.6459854.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CNY1731445240.3766139.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>11.904</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>11.92</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.01600000000000001</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731445243.1743586</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731445243.6761496</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731445243.1743586.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731445243.6761496.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>11.96</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>11.959</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.001000000000001222</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731445244.8584208</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731445245.5486674</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731445244.8584208.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731445245.5486674.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>11.966</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>11.962</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.003999999999999559</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731445245.5646539</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731445246.3605652</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731445245.5646539.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731445246.3605652.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>11.962</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>11.953</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.009000000000000341</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731445247.9876804</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731445247.9876804.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+          <t>./test_images/CNY1731445247.9876804.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>11.964</v>
       </c>
-      <c r="J55" t="n">
-        <v>11.964</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
+      <c r="L55" t="n">
+        <v>12.009</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.04499999999999993</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731445250.897485</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731445251.1115744</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445250.897485.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445251.1115744.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>123.66</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>123.38</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731445251.742141</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731445251.8864477</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445251.742141.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445251.8864477.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>123.82</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>123.54</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.2799999999999869</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731445252.3071175</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731445252.531256</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445252.3071175.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445252.531256.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>124</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>123.74</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.2600000000000051</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731445257.3906386</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731445257.4423192</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445257.3906386.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445257.4423192.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>123.86</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>123.8</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731445257.5744286</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731445258.8523936</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445257.5744286.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445258.8523936.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>123.88</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>123.74</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731445260.2954936</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731445260.5185952</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445260.2954936.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445260.5185952.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>124.08</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>123.9</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.1799999999999926</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731445262.8269136</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731445263.5663445</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445262.8269136.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731445263.5663445.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>124.48</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>124.34</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731445263.9119496</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731445263.9119496.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+          <t>./test_images/GMKN1731445263.9119496.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>124.58</v>
       </c>
-      <c r="J63" t="n">
-        <v>124.58</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
+      <c r="L63" t="n">
+        <v>125</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.4200000000000017</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731445273.2635765</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731445274.7008972</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731445273.2635765.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731445274.7008972.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>160.22</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>160.8</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.5800000000000125</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731445275.7004192</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731445278.0550778</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731445275.7004192.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731445278.0550778.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>161.94</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>161.9</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731445280.8849804</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731445281.0581074</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445280.8849804.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445281.0581074.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>48.95</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>49</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731445289.0275702</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731445291.6682386</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445289.0275702.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445291.6682386.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>49.505</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>49.9</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.394999999999996</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731445292.0608258</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731445292.627204</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445292.0608258.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731445292.627204.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>50.19</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>49.99</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.1999999999999957</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731445292.6431608</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731445292.6431608.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731445292.6431608.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>49.99</v>
       </c>
-      <c r="J69" t="n">
-        <v>49.99</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
+      <c r="L69" t="n">
+        <v>50.225</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.2349999999999994</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731445303.1713111</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731445304.24892</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445303.1713111.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445304.24892.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>1377.6</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>1377.8</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731445305.2821162</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731445305.530398</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445305.2821162.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445305.530398.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>1384.6</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>1382.8</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731445306.6898634</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731445306.901045</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445306.6898634.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445306.901045.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>1387.8</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>1385.2</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>2.599999999999909</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731445306.9170294</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731445307.5987017</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445306.9170294.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731445307.5987017.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>1385.2</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>1389</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>3.799999999999955</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731445307.8775284</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731445307.8775284.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731445307.8775284.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>1386.8</v>
       </c>
-      <c r="J74" t="n">
-        <v>1386.8</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
+      <c r="L74" t="n">
+        <v>1387.6</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731445320.1936576</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731445320.2465165</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445320.1936576.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731445320.2465165.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>61.33</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>61.26</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731445325.0960183</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731445325.0960183.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+          <t>./test_images/ALRS1731445325.0960183.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>61.45</v>
       </c>
-      <c r="J76" t="n">
-        <v>61.45</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
+      <c r="L76" t="n">
+        <v>61.52</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731445327.0336716</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731445327.1804526</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731445327.0336716.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731445327.1804526.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>97.11</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>96.98</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731445333.6435642</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731445335.2194176</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731445333.6435642.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731445335.2194176.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>97.5</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>97.61</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.1099999999999994</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731445336.4006941</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731445336.708758</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731445336.4006941.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731445336.708758.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>97.8</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>97.95</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.1500000000000057</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731445341.7719622</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731445342.4529543</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445341.7719622.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445342.4529543.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>55.35</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>55.41</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.05999999999999517</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731445349.7304602</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731445350.1177542</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445349.7304602.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SELG1731445350.1177542.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>55.63</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>55.58</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.05000000000000426</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731445352.5762603</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731445352.5762603.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731445352.5762603.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>55.78</v>
       </c>
-      <c r="J82" t="n">
-        <v>55.78</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
+      <c r="L82" t="n">
+        <v>55.97</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731445354.4229457</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731445356.767332</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445354.4229457.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445356.767332.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>150.42</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>149.88</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.539999999999992</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731445357.6162946</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731445357.7857149</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445357.6162946.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445357.7857149.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>150</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>149.52</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731445358.5697436</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731445359.6177077</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445358.5697436.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445359.6177077.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>149.66</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>149.88</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731445361.4730859</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731445363.2728105</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445361.4730859.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445363.2728105.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>149.38</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>150.1</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.7199999999999989</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731445363.4175122</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731445363.596387</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445363.4175122.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445363.596387.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>150.66</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>149.82</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.8400000000000034</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731445363.6859741</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731445364.4271917</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445363.6859741.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731445364.4271917.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>150.86</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>150.94</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.07999999999998408</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731445365.395606</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731445365.395606.png</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+          <t>./test_images/SOFL1731445365.395606.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>151.4</v>
       </c>
-      <c r="J89" t="n">
-        <v>151.4</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
+      <c r="L89" t="n">
+        <v>153.52</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-2.120000000000005</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-1.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731445372.389714</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731445374.3155322</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731445372.389714.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731445374.3155322.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>0.2945</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>0.2945</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4765,621 +5579,738 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731445376.527991</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731445376.527991.png</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731445376.527991.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>0.2956</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.2956</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
+      <c r="L91" t="n">
+        <v>0.2988</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.003200000000000036</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731445381.2701533</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731445381.5312865</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731445381.2701533.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731445381.5312865.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>19.804</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>19.85</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.04600000000000293</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731445382.8995972</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731445383.8727727</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731445382.8995972.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731445383.8727727.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>19.812</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>19.852</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-0.03999999999999915</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731445387.398379</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731445387.7956624</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731445387.398379.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731445387.7956624.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>19.983</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>19.947</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.03600000000000136</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731445388.6844022</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731445389.105349</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731445388.6844022.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731445389.105349.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>19.975</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>19.985</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.00999999999999801</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731445392.0834496</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731445392.2462273</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731445392.0834496.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731445392.2462273.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>20.102</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>20.05</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.0519999999999996</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731445393.6483777</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731445393.6483777.png</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731445393.6483777.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>20.108</v>
       </c>
-      <c r="J97" t="n">
-        <v>20.108</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
+      <c r="L97" t="n">
+        <v>20.035</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.0730000000000004</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731445401.7446532</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731445403.2292578</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731445401.7446532.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731445403.2292578.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>668.5</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>670.75</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-2.25</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731445407.623266</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731445408.022053</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731445407.623266.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731445408.022053.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>673.5</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>674.95</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>1.450000000000045</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731445408.5420735</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731445408.6771867</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445408.5420735.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445408.6771867.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>148.81</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>149.18</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.3700000000000045</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731445411.356199</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731445411.5312886</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445411.356199.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445411.5312886.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>149.08</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>149.35</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731445417.1596162</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731445417.7370565</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445417.1596162.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445417.7370565.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>150.3</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>150.96</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>-0.6599999999999966</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731445418.5053883</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731445419.6106224</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445418.5053883.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731445419.6106224.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>151.81</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>152.77</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>-0.960000000000008</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -5393,7 +6324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5422,6 +6353,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5430,13 +6371,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02000000000003865</v>
+        <v>-0.06999999999999318</v>
       </c>
       <c r="C2" t="n">
         <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.001538461538464512</v>
+        <v>-0.00538461538461486</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -5454,6 +6401,12 @@
       <c r="D3" t="n">
         <v>0.1733333333333336</v>
       </c>
+      <c r="E3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5462,13 +6415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.339999999999989</v>
+        <v>0.9199999999999875</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1674999999999986</v>
+        <v>0.1149999999999984</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -5486,6 +6445,12 @@
       <c r="D5" t="n">
         <v>-1.428571428571429</v>
       </c>
+      <c r="E5" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5494,13 +6459,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.280000000000001</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3257142857142859</v>
+        <v>0.02285714285714237</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1199999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -5510,13 +6481,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08400000000000674</v>
+        <v>0.01100000000000634</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01400000000000112</v>
+        <v>0.00183333333333439</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -5526,13 +6503,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04000000000000092</v>
+        <v>-0.005000000000000782</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006666666666666821</v>
+        <v>-0.0008333333333334636</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.05000000000000004</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="9">
@@ -5542,13 +6525,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.349999999999909</v>
+        <v>-0.4499999999999318</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2249999999999849</v>
+        <v>-0.07499999999998863</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.09000000000000008</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="10">
@@ -5558,13 +6547,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.999999999999773</v>
+        <v>8.799999999999727</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>1.599999999999955</v>
+        <v>1.759999999999945</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="11">
@@ -5582,6 +6577,12 @@
       <c r="D11" t="n">
         <v>-0.008000000000004092</v>
       </c>
+      <c r="E11" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5590,13 +6591,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.200000000000045</v>
+        <v>1.800000000000182</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>1.550000000000011</v>
+        <v>0.4500000000000455</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="13">
@@ -5614,6 +6621,12 @@
       <c r="D13" t="n">
         <v>-0.2450000000000045</v>
       </c>
+      <c r="E13" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5622,13 +6635,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1450000000000031</v>
+        <v>0.08999999999999631</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.03625000000000078</v>
+        <v>0.02249999999999908</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="15">
@@ -5646,6 +6665,12 @@
       <c r="D15" t="n">
         <v>0.0466666666666716</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5654,13 +6679,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.009999999999990905</v>
+        <v>0.1800000000000068</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.003333333333330302</v>
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="17">
@@ -5678,6 +6709,12 @@
       <c r="D17" t="n">
         <v>-0.04333333333333655</v>
       </c>
+      <c r="E17" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5694,6 +6731,12 @@
       <c r="D18" t="n">
         <v>-0.2700000000000102</v>
       </c>
+      <c r="E18" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5702,13 +6745,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.07000000000000028</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03500000000000014</v>
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5718,13 +6767,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.003200000000000036</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.001600000000000018</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="21">
@@ -5742,6 +6797,12 @@
       <c r="D21" t="n">
         <v>-0.3999999999999773</v>
       </c>
+      <c r="E21" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -5756,6 +6817,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
